--- a/Saleel Tables/Assignments/1NF DATA.xlsx
+++ b/Saleel Tables/Assignments/1NF DATA.xlsx
@@ -58,9 +58,6 @@
     <t>HIREDATE</t>
   </si>
   <si>
-    <t>SAL</t>
-  </si>
-  <si>
     <t>COMM</t>
   </si>
   <si>
@@ -761,6 +758,9 @@
   </si>
   <si>
     <t>5973 Moon Shadow Dr. Herriman, Utah(UT)</t>
+  </si>
+  <si>
+    <t>SALARY</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,13 +784,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -806,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,6 +842,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1137,20 +1154,19 @@
   <dimension ref="A3:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1164,60 +1180,60 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1225,55 +1241,55 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="1">
         <v>2675</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1281,55 +1297,55 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1">
         <v>2675</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1337,43 +1353,43 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1">
         <v>2675</v>
@@ -1382,10 +1398,10 @@
         <v>3400</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1393,55 +1409,55 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1">
         <v>800</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1449,55 +1465,55 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" s="1">
         <v>1200</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1505,55 +1521,55 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O9" s="1">
         <v>3400</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1561,55 +1577,55 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O10" s="1">
         <v>2766</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1617,55 +1633,55 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="M11" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" s="1">
         <v>1234</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1673,43 +1689,43 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O12" s="1">
         <v>2301</v>
@@ -1718,10 +1734,10 @@
         <v>200</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1729,55 +1745,55 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="1">
         <v>3900</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1785,55 +1801,55 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="1">
         <v>5000</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1841,55 +1857,55 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O15" s="1">
         <v>5400</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1897,55 +1913,55 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O16" s="1">
         <v>6000</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1953,55 +1969,55 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O17" s="1">
         <v>4500</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2009,43 +2025,43 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="K18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O18" s="1">
         <v>5000</v>
@@ -2054,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2065,55 +2081,55 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O19" s="1">
         <v>950</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2121,55 +2137,55 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="J20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="1">
         <v>3200</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2177,55 +2193,55 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O21" s="1">
         <v>2700</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2233,13 +2249,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="6">
         <v>8346547676</v>
@@ -2248,40 +2264,40 @@
         <v>9876567778</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="N22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O22" s="6">
         <v>4500</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2289,13 +2305,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="6">
         <v>7788992233</v>
@@ -2304,28 +2320,28 @@
         <v>7654328776</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="N23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O23" s="6">
         <v>3500</v>
@@ -2334,10 +2350,10 @@
         <v>2000</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2345,13 +2361,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="6">
         <v>8956238956</v>
@@ -2360,28 +2376,28 @@
         <v>8596234178</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="N24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O24" s="6">
         <v>6000</v>
@@ -2390,10 +2406,10 @@
         <v>8000</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2401,55 +2417,55 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="6">
         <v>9405875046</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="N25" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O25" s="6">
         <v>8500</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2457,55 +2473,55 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="6">
         <v>9518856535</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="N26" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O26" s="6">
         <v>5000</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2513,13 +2529,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="6">
         <v>9865321447</v>
@@ -2528,40 +2544,40 @@
         <v>8569744262</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="N27" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O27" s="6">
         <v>1000</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2569,13 +2585,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="6">
         <v>8805787668</v>
@@ -2584,28 +2600,28 @@
         <v>8605914496</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="N28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O28" s="6">
         <v>7000</v>
@@ -2614,10 +2630,10 @@
         <v>0.33</v>
       </c>
       <c r="Q28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2625,13 +2641,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6">
         <v>9096994584</v>
@@ -2640,28 +2656,28 @@
         <v>7387570363</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="I29" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="K29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O29" s="6">
         <v>5000</v>
@@ -2670,10 +2686,10 @@
         <v>800</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2681,13 +2697,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="6">
         <v>9527206449</v>
@@ -2696,28 +2712,28 @@
         <v>9422374939</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="N30" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O30" s="6">
         <v>6000</v>
@@ -2726,10 +2742,10 @@
         <v>8000</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
